--- a/data/uso123 workbook.xlsx
+++ b/data/uso123 workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tishmanspeyercloud-my.sharepoint.com/personal/prode_tishmanspeyer_com/Documents/Documents/R/NCZ_Interventions/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72DB6465-DBFE-428D-976F-6602524DCAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{72DB6465-DBFE-428D-976F-6602524DCAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F31861C5-1A1F-4C7D-9AED-D6A7C7C5F4AA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A0CE5E21-DF0F-4E81-9B54-9FCA1130BBFA}"/>
+    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{A0CE5E21-DF0F-4E81-9B54-9FCA1130BBFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="61">
   <si>
     <t>CitySpire</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>300 Park</t>
+  </si>
+  <si>
+    <t>333 Bush</t>
   </si>
 </sst>
 </file>
@@ -224,7 +227,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -411,7 +414,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -421,23 +424,23 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -760,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24AEE26E-CACE-4F71-9635-910A3BC0710B}">
-  <dimension ref="C1:X61"/>
+  <dimension ref="C1:X70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2431,7 +2434,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:24" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="1">
         <v>1</v>
       </c>
@@ -2499,7 +2502,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:24" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C34" s="1">
         <v>2</v>
       </c>
@@ -2567,7 +2570,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:24" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C35" s="1">
         <v>3</v>
       </c>
@@ -2635,7 +2638,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:24" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C36" s="1">
         <v>4</v>
       </c>
@@ -2703,7 +2706,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:24" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C37" s="1">
         <v>5</v>
       </c>
@@ -2771,7 +2774,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="E38" s="5">
         <f>SUM(E33:E37)</f>
         <v>8098531.0999999996</v>
@@ -2789,304 +2792,606 @@
         <v>21380731.800000001</v>
       </c>
     </row>
-    <row r="40" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="E40" s="14">
-        <f>F40</f>
+    <row r="39" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1666329.5</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3">
+        <v>5695514</v>
+      </c>
+      <c r="H39" s="3">
+        <v>2617801.9</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0</v>
+      </c>
+      <c r="L39" s="3">
+        <v>0</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T39" s="3">
+        <v>597694</v>
+      </c>
+      <c r="U39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X39" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="3">
+        <v>337564.5</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3">
+        <v>1153795</v>
+      </c>
+      <c r="H40" s="3">
+        <v>358338.8</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0</v>
+      </c>
+      <c r="J40" s="3">
+        <v>0</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0</v>
+      </c>
+      <c r="L40" s="3">
+        <v>0</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T40" s="3">
+        <v>597694</v>
+      </c>
+      <c r="U40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X40" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="1">
+        <v>3</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="3">
+        <v>315684</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1079008</v>
+      </c>
+      <c r="H41" s="3">
+        <v>865717.5</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T41" s="3">
+        <v>597694</v>
+      </c>
+      <c r="U41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X41" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="1">
+        <v>4</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1756333.4</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>6003148</v>
+      </c>
+      <c r="H42" s="3">
+        <v>3462192.4</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T42" s="3">
+        <v>597694</v>
+      </c>
+      <c r="U42" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X42" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="49" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E49" s="14">
+        <f>F49</f>
         <v>17479.8105</v>
       </c>
-      <c r="F40" s="14">
+      <c r="F49" s="14">
         <f>F38-427</f>
         <v>17479.8105</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G49" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E41" s="15">
-        <f>E40*0.8</f>
+    <row r="50" spans="5:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E50" s="15">
+        <f>E49*0.8</f>
         <v>13983.848400000001</v>
       </c>
     </row>
-    <row r="42" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="E42" s="15">
-        <f>E41*349.33</f>
+    <row r="51" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E51" s="15">
+        <f>E50*349.33</f>
         <v>4884977.7615719996</v>
       </c>
-      <c r="I42" s="7" t="s">
+      <c r="I51" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J42" s="8" t="s">
+      <c r="J51" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K42" s="8" t="s">
+      <c r="K51" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L42" s="9"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="9"/>
-    </row>
-    <row r="43" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I43" s="10">
+      <c r="L51" s="9"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="9"/>
+    </row>
+    <row r="52" spans="5:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I52" s="10">
         <f>G3</f>
         <v>10581418</v>
       </c>
-      <c r="J43" s="11">
+      <c r="J52" s="11">
         <f>E3</f>
         <v>3095792.4</v>
       </c>
-      <c r="K43" s="11">
-        <f>I43/J43</f>
+      <c r="K52" s="11">
+        <f>I52/J52</f>
         <v>3.4179998632983271</v>
       </c>
-      <c r="L43" s="12"/>
-      <c r="O43" s="25">
+      <c r="L52" s="12"/>
+      <c r="O52" s="25">
         <v>1</v>
       </c>
-      <c r="P43" s="23" t="s">
+      <c r="P52" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="Q43" s="23"/>
-      <c r="R43" s="23"/>
-      <c r="S43" s="24"/>
-    </row>
-    <row r="44" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="E44" s="15">
-        <f>E42/3</f>
-        <v>1628325.920524</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J44" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K44" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L44" s="9"/>
-      <c r="O44" s="25">
-        <v>100000</v>
-      </c>
-      <c r="P44" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q44" s="23"/>
-      <c r="R44" s="23"/>
-      <c r="S44" s="24"/>
-    </row>
-    <row r="45" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I45" s="16">
-        <f>F7</f>
-        <v>4414.2405900000003</v>
-      </c>
-      <c r="J45" s="17">
-        <f>I7</f>
-        <v>5270603.26</v>
-      </c>
-      <c r="K45" s="18">
-        <f>I45*1194</f>
-        <v>5270603.2644600002</v>
-      </c>
-      <c r="L45" s="12"/>
-      <c r="O45" s="25">
-        <f>O44/1000</f>
-        <v>100</v>
-      </c>
-      <c r="P45" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q45" s="23"/>
-      <c r="R45" s="23"/>
-      <c r="S45" s="24"/>
-    </row>
-    <row r="46" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="I46" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J46" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K46" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L46" s="9"/>
-      <c r="O46" s="25">
-        <f>O45/1000</f>
-        <v>0.1</v>
-      </c>
-      <c r="P46" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q46" s="23"/>
-      <c r="R46" s="23"/>
-      <c r="S46" s="24"/>
-    </row>
-    <row r="47" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I47" s="16">
-        <f>F7</f>
-        <v>4414.2405900000003</v>
-      </c>
-      <c r="J47" s="18">
-        <f>I47*1194/3.418</f>
-        <v>1542013.8281041544</v>
-      </c>
-      <c r="K47" s="19">
-        <f>J47/I47</f>
-        <v>349.3270918665886</v>
-      </c>
-      <c r="L47" s="12"/>
-      <c r="O47" s="26"/>
-      <c r="P47" s="23"/>
-      <c r="Q47" s="23"/>
-      <c r="R47" s="23"/>
-      <c r="S47" s="24"/>
-    </row>
-    <row r="48" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="I48" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J48" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K48" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="L48" s="9"/>
-      <c r="O48" s="26">
-        <v>1.32</v>
-      </c>
-      <c r="P48" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q48" s="23"/>
-      <c r="R48" s="23"/>
-      <c r="S48" s="24"/>
-    </row>
-    <row r="49" spans="9:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I49" s="10"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11">
-        <v>3.41</v>
-      </c>
-      <c r="L49" s="12"/>
-      <c r="O49" s="26"/>
-      <c r="P49" s="23"/>
-      <c r="Q49" s="23"/>
-      <c r="R49" s="23"/>
-      <c r="S49" s="24"/>
-    </row>
-    <row r="50" spans="9:19" x14ac:dyDescent="0.25">
-      <c r="O50" s="26">
-        <v>3412.14</v>
-      </c>
-      <c r="P50" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q50" s="23"/>
-      <c r="R50" s="23"/>
-      <c r="S50" s="24"/>
-    </row>
-    <row r="51" spans="9:19" x14ac:dyDescent="0.25">
-      <c r="O51" s="27">
-        <f>O44/O50</f>
-        <v>29.307121044271337</v>
-      </c>
-      <c r="P51" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q51" s="23"/>
-      <c r="R51" s="23"/>
-      <c r="S51" s="24"/>
-    </row>
-    <row r="52" spans="9:19" x14ac:dyDescent="0.25">
-      <c r="O52" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="P52" s="23"/>
       <c r="Q52" s="23"/>
       <c r="R52" s="23"/>
       <c r="S52" s="24"/>
     </row>
-    <row r="53" spans="9:19" x14ac:dyDescent="0.25">
-      <c r="O53" s="27">
-        <f>O48/O51</f>
-        <v>4.5040248000000005E-2</v>
+    <row r="53" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E53" s="15">
+        <f>E51/3</f>
+        <v>1628325.920524</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L53" s="9"/>
+      <c r="O53" s="25">
+        <v>100000</v>
       </c>
       <c r="P53" s="23" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q53" s="23"/>
       <c r="R53" s="23"/>
       <c r="S53" s="24"/>
     </row>
-    <row r="54" spans="9:19" x14ac:dyDescent="0.25">
-      <c r="O54" s="26"/>
-      <c r="P54" s="23"/>
+    <row r="54" spans="5:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I54" s="16">
+        <f>F7</f>
+        <v>4414.2405900000003</v>
+      </c>
+      <c r="J54" s="17">
+        <f>I7</f>
+        <v>5270603.26</v>
+      </c>
+      <c r="K54" s="18">
+        <f>I54*1194</f>
+        <v>5270603.2644600002</v>
+      </c>
+      <c r="L54" s="12"/>
+      <c r="O54" s="25">
+        <f>O53/1000</f>
+        <v>100</v>
+      </c>
+      <c r="P54" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="Q54" s="23"/>
       <c r="R54" s="23"/>
       <c r="S54" s="24"/>
     </row>
-    <row r="55" spans="9:19" x14ac:dyDescent="0.25">
-      <c r="O55" s="26"/>
-      <c r="P55" s="23"/>
+    <row r="55" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="I55" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J55" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L55" s="9"/>
+      <c r="O55" s="25">
+        <f>O54/1000</f>
+        <v>0.1</v>
+      </c>
+      <c r="P55" s="23" t="s">
+        <v>44</v>
+      </c>
       <c r="Q55" s="23"/>
       <c r="R55" s="23"/>
       <c r="S55" s="24"/>
     </row>
-    <row r="56" spans="9:19" x14ac:dyDescent="0.25">
-      <c r="O56" s="26">
-        <v>0.25</v>
-      </c>
-      <c r="P56" s="23" t="s">
-        <v>49</v>
-      </c>
+    <row r="56" spans="5:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I56" s="16">
+        <f>F7</f>
+        <v>4414.2405900000003</v>
+      </c>
+      <c r="J56" s="18">
+        <f>I56*1194/3.418</f>
+        <v>1542013.8281041544</v>
+      </c>
+      <c r="K56" s="19">
+        <f>J56/I56</f>
+        <v>349.3270918665886</v>
+      </c>
+      <c r="L56" s="12"/>
+      <c r="O56" s="26"/>
+      <c r="P56" s="23"/>
       <c r="Q56" s="23"/>
       <c r="R56" s="23"/>
       <c r="S56" s="24"/>
     </row>
-    <row r="57" spans="9:19" x14ac:dyDescent="0.25">
-      <c r="O57" s="27">
-        <f>O56/O53</f>
-        <v>5.5505911068695708</v>
+    <row r="57" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="I57" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J57" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K57" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L57" s="9"/>
+      <c r="O57" s="26">
+        <v>1.32</v>
       </c>
       <c r="P57" s="23" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="Q57" s="23"/>
       <c r="R57" s="23"/>
       <c r="S57" s="24"/>
     </row>
-    <row r="58" spans="9:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I58" s="10"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11">
+        <v>3.41</v>
+      </c>
+      <c r="L58" s="12"/>
       <c r="O58" s="26"/>
       <c r="P58" s="23"/>
       <c r="Q58" s="23"/>
       <c r="R58" s="23"/>
       <c r="S58" s="24"/>
     </row>
-    <row r="59" spans="9:19" x14ac:dyDescent="0.25">
-      <c r="O59" s="26"/>
-      <c r="P59" s="23"/>
+    <row r="59" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="O59" s="26">
+        <v>3412.14</v>
+      </c>
+      <c r="P59" s="23" t="s">
+        <v>47</v>
+      </c>
       <c r="Q59" s="23"/>
       <c r="R59" s="23"/>
       <c r="S59" s="24"/>
     </row>
-    <row r="60" spans="9:19" x14ac:dyDescent="0.25">
-      <c r="O60" s="26"/>
-      <c r="P60" s="23"/>
+    <row r="60" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="O60" s="27">
+        <f>O53/O59</f>
+        <v>29.307121044271337</v>
+      </c>
+      <c r="P60" s="23" t="s">
+        <v>48</v>
+      </c>
       <c r="Q60" s="23"/>
       <c r="R60" s="23"/>
       <c r="S60" s="24"/>
     </row>
-    <row r="61" spans="9:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O61" s="10"/>
-      <c r="P61" s="11"/>
-      <c r="Q61" s="11"/>
-      <c r="R61" s="11"/>
-      <c r="S61" s="12"/>
+    <row r="61" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="O61" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="P61" s="23"/>
+      <c r="Q61" s="23"/>
+      <c r="R61" s="23"/>
+      <c r="S61" s="24"/>
+    </row>
+    <row r="62" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="O62" s="27">
+        <f>O57/O60</f>
+        <v>4.5040248000000005E-2</v>
+      </c>
+      <c r="P62" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q62" s="23"/>
+      <c r="R62" s="23"/>
+      <c r="S62" s="24"/>
+    </row>
+    <row r="63" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="O63" s="26"/>
+      <c r="P63" s="23"/>
+      <c r="Q63" s="23"/>
+      <c r="R63" s="23"/>
+      <c r="S63" s="24"/>
+    </row>
+    <row r="64" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="O64" s="26"/>
+      <c r="P64" s="23"/>
+      <c r="Q64" s="23"/>
+      <c r="R64" s="23"/>
+      <c r="S64" s="24"/>
+    </row>
+    <row r="65" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O65" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="P65" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q65" s="23"/>
+      <c r="R65" s="23"/>
+      <c r="S65" s="24"/>
+    </row>
+    <row r="66" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O66" s="27">
+        <f>O65/O62</f>
+        <v>5.5505911068695708</v>
+      </c>
+      <c r="P66" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q66" s="23"/>
+      <c r="R66" s="23"/>
+      <c r="S66" s="24"/>
+    </row>
+    <row r="67" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O67" s="26"/>
+      <c r="P67" s="23"/>
+      <c r="Q67" s="23"/>
+      <c r="R67" s="23"/>
+      <c r="S67" s="24"/>
+    </row>
+    <row r="68" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O68" s="26"/>
+      <c r="P68" s="23"/>
+      <c r="Q68" s="23"/>
+      <c r="R68" s="23"/>
+      <c r="S68" s="24"/>
+    </row>
+    <row r="69" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O69" s="26"/>
+      <c r="P69" s="23"/>
+      <c r="Q69" s="23"/>
+      <c r="R69" s="23"/>
+      <c r="S69" s="24"/>
+    </row>
+    <row r="70" spans="15:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O70" s="10"/>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="11"/>
+      <c r="R70" s="11"/>
+      <c r="S70" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
